--- a/Документация/тесткейсы.xlsx
+++ b/Документация/тесткейсы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
   <si>
     <t>Описание</t>
   </si>
@@ -45,9 +45,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>1. Нажать на кионку приложения</t>
-  </si>
-  <si>
     <t>Приложение запустилось без ошибок</t>
   </si>
   <si>
@@ -151,6 +148,138 @@
   </si>
   <si>
     <t>Выводиться сообщение "Выберите дату не раньше сегодняшней"</t>
+  </si>
+  <si>
+    <t>Наличие подключения к интернету</t>
+  </si>
+  <si>
+    <t>Поиск без подключения к интернету</t>
+  </si>
+  <si>
+    <t>Подключения к интернету отсутствует</t>
+  </si>
+  <si>
+    <t>Выводиться сообщение "Нет ответа"</t>
+  </si>
+  <si>
+    <t>Ввод даты возращения</t>
+  </si>
+  <si>
+    <t>Выбран тип поездки в одну сторону</t>
+  </si>
+  <si>
+    <t>Ввод не возможен по причине блокировки поля для ввода даты возвращения</t>
+  </si>
+  <si>
+    <t>Поменять города отправления и назначения местами</t>
+  </si>
+  <si>
+    <t>Города отправления и назначения поменялись местами</t>
+  </si>
+  <si>
+    <t>Сохранение истории</t>
+  </si>
+  <si>
+    <t>Осуществлен поиск билетов</t>
+  </si>
+  <si>
+    <t>Введенная пользователем информация сохранилась</t>
+  </si>
+  <si>
+    <t>В меню в верхней части приложения не поставлена галочка напротив "Сохранять историю поиска"</t>
+  </si>
+  <si>
+    <t>Введенная пользователем информация не сохраняется</t>
+  </si>
+  <si>
+    <t>Условия сохранения истоии поиска</t>
+  </si>
+  <si>
+    <t>В меню в верхней части приложения поставлена галочка напротив "Сохранять историю поиска"</t>
+  </si>
+  <si>
+    <t>Введенная пользователем информация сохраняется</t>
+  </si>
+  <si>
+    <t>Сортировки результатов поиска</t>
+  </si>
+  <si>
+    <t>открыта страница с результатами поиска билетов</t>
+  </si>
+  <si>
+    <t>В врехней части экрана выбрать тип сортировки</t>
+  </si>
+  <si>
+    <t>Все типы сортировок работают успешно</t>
+  </si>
+  <si>
+    <t>Добавление закладки</t>
+  </si>
+  <si>
+    <t>В верхней части экрана нажать на сердечко</t>
+  </si>
+  <si>
+    <t>Сердечко стало закрашенным</t>
+  </si>
+  <si>
+    <t>Закладка успешно добавлена в списиок закладок</t>
+  </si>
+  <si>
+    <t>Удаление закладки</t>
+  </si>
+  <si>
+    <t>В верхней части экрана нажать на закрашенное сердечко</t>
+  </si>
+  <si>
+    <t>Сердечко стало не закрашенным</t>
+  </si>
+  <si>
+    <t>Закладка успешно удалена</t>
+  </si>
+  <si>
+    <t>открыта страница со списком закладок</t>
+  </si>
+  <si>
+    <t>В правой части закладки нажать на сердечко</t>
+  </si>
+  <si>
+    <t>открыта страница с историей поиска</t>
+  </si>
+  <si>
+    <t>В правой части закладки нажать на крестик</t>
+  </si>
+  <si>
+    <t>Элемент истории поиска успешно удален</t>
+  </si>
+  <si>
+    <t>Удаление элемента истории поиска</t>
+  </si>
+  <si>
+    <t>Очищение истории поиска</t>
+  </si>
+  <si>
+    <t>В нижней части страницы нажать на кнопку "Очистить историю"</t>
+  </si>
+  <si>
+    <t>История поиска успешно очищена</t>
+  </si>
+  <si>
+    <t>Ссылки на покупку билетов</t>
+  </si>
+  <si>
+    <t>открыта страница с подробным описанием билета</t>
+  </si>
+  <si>
+    <t>В разделе "Цены" нажать на кнопку "Купить"</t>
+  </si>
+  <si>
+    <t>Открывается страница в браузере с формой покупки билетов, которая заполнена нужными данными</t>
+  </si>
+  <si>
+    <t>Нажать на кионку приложения</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку со стрелочками, нарисованными в противоположных направлениях</t>
   </si>
 </sst>
 </file>
@@ -175,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -183,11 +312,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -195,14 +484,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,25 +980,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1"/>
@@ -551,82 +1008,83 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="57"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="E4" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -634,14 +1092,15 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -649,33 +1108,35 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -683,15 +1144,15 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="63"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -699,15 +1160,15 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -715,39 +1176,39 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
+      <c r="E12" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -755,14 +1216,15 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="9"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -770,14 +1232,15 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="9"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -785,17 +1248,17 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -803,15 +1266,17 @@
       <c r="L15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -819,15 +1284,15 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -835,39 +1300,39 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="50"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="44">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
+      <c r="B19" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -875,207 +1340,673 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="44">
         <v>5</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44">
+        <v>6</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
+        <v>7</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="44">
+        <v>8</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="16"/>
+      <c r="G28" s="15"/>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="44">
+        <v>9</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="42">
+        <v>10</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="12"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="45"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="15"/>
+    </row>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <v>11</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="26">
+        <v>12</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="34"/>
+      <c r="E34" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="42">
+        <v>13</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="68"/>
+      <c r="E35" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="43"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="69"/>
+      <c r="E36" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="E22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>6</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="E26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="E28" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+      <c r="B37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="42">
+        <v>15</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="43"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="51">
+        <v>16</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>17</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <v>18</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="39"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>19</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="59">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
     <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F19"/>
     <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E7:E11"/>
     <mergeCell ref="F4:F11"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B18"/>
     <mergeCell ref="G4:G11"/>
-    <mergeCell ref="E4:E6"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="F2:F3"/>
@@ -1083,6 +2014,26 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="B40:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Документация/тесткейсы.xlsx
+++ b/Документация/тесткейсы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
   <si>
     <t>Описание</t>
   </si>
@@ -186,18 +186,12 @@
     <t>Введенная пользователем информация сохранилась</t>
   </si>
   <si>
-    <t>В меню в верхней части приложения не поставлена галочка напротив "Сохранять историю поиска"</t>
-  </si>
-  <si>
     <t>Введенная пользователем информация не сохраняется</t>
   </si>
   <si>
     <t>Условия сохранения истоии поиска</t>
   </si>
   <si>
-    <t>В меню в верхней части приложения поставлена галочка напротив "Сохранять историю поиска"</t>
-  </si>
-  <si>
     <t>Введенная пользователем информация сохраняется</t>
   </si>
   <si>
@@ -280,6 +274,33 @@
   </si>
   <si>
     <t>Нажать на кнопку со стрелочками, нарисованными в противоположных направлениях</t>
+  </si>
+  <si>
+    <t>Подсказки пользователю</t>
+  </si>
+  <si>
+    <t>Приложение запущено</t>
+  </si>
+  <si>
+    <t>В меню в верхней части приложения отметить галочкой пункт "Сохранять историю поиска"</t>
+  </si>
+  <si>
+    <t>В меню в верхней части приложения снять галочку с пункта пункт "Сохранять историю поиска"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нажать на какую-либо иконку </t>
+  </si>
+  <si>
+    <t>Всплывает подсказка о том, что  означает иконка</t>
+  </si>
+  <si>
+    <t>При вводе несуществующей даты ищутся билеты на дату равную последнее число месяца + лишние дни   (напрмиер, для 32 мая 2019 найдены билеты для 1 июня 2019)</t>
+  </si>
+  <si>
+    <t>Не пройден</t>
+  </si>
+  <si>
+    <t>Pixel 3 XL API 28 Android 9.0</t>
   </si>
 </sst>
 </file>
@@ -466,17 +487,17 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,166 +521,117 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,32 +947,30 @@
     <col min="4" max="4" width="41.140625" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="F1" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="46"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1008,67 +978,61 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
-        <v>1</v>
-      </c>
-      <c r="B2" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="55"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="37"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="55"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="37"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
+    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1076,15 +1040,27 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1092,15 +1068,15 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1108,15 +1084,15 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1124,35 +1100,37 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="54"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="34"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1160,15 +1138,15 @@
       <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1176,15 +1154,15 @@
       <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1192,39 +1170,43 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44">
-        <v>3</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="9"/>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>3</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1232,15 +1214,15 @@
       <c r="L13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1248,35 +1230,35 @@
       <c r="L14" s="2"/>
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="9"/>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="34"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1284,15 +1266,17 @@
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="9"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1300,15 +1284,15 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="11"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1316,724 +1300,842 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="44">
-        <v>4</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="11"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>4</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>12</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="44">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+    </row>
+    <row r="22" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
         <v>5</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C22" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D22" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E22" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="20" t="s">
+      <c r="F22" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>6</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44">
-        <v>6</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="49" t="s">
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+    </row>
+    <row r="26" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>7</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D26" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>8</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="D28" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
-        <v>7</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="49" t="s">
+      <c r="F28" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>9</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>10</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="44">
-        <v>8</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="49" t="s">
+      <c r="D32" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44">
-        <v>9</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="21" t="s">
+      <c r="E32" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+    </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>11</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+    </row>
+    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>12</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+    </row>
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
         <v>13</v>
       </c>
-      <c r="D29" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
-        <v>10</v>
-      </c>
-      <c r="B31" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>11</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="17" t="s">
+      <c r="B36" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-    </row>
-    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="26">
+      <c r="D36" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-    </row>
-    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="42">
-        <v>13</v>
-      </c>
-      <c r="B35" s="49" t="s">
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="68"/>
-      <c r="E35" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="33" t="s">
+      <c r="F37" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>14</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="33" t="s">
+      <c r="C38" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>14</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="E38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="F38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>15</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="C39" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="42">
-        <v>15</v>
-      </c>
-      <c r="B38" s="44" t="s">
+      <c r="E39" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C38" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="35" t="s">
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="30">
+        <v>16</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="51">
-        <v>16</v>
-      </c>
-      <c r="B40" s="51" t="s">
+      <c r="E41" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D40" s="49" t="s">
+      <c r="F41" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="36" t="s">
+      <c r="D43" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="33" t="s">
+      <c r="E43" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>17</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D44" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>17</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="E44" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+    </row>
+    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>18</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>18</v>
-      </c>
-      <c r="B44" s="5" t="s">
+      <c r="E45" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="33" t="s">
+      <c r="F45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+    </row>
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>19</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="C46" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F44" s="39"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-    </row>
-    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>19</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="D46" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="E46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="F46" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+    </row>
+    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>20</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F4:F11"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="G4:G11"/>
+  <mergeCells count="87">
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G13:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Документация/тесткейсы.xlsx
+++ b/Документация/тесткейсы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>Описание</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Приложение запустилось без ошибок</t>
   </si>
   <si>
-    <t>Отобразилась страница с формой для ввода информации для поиска билетов</t>
-  </si>
-  <si>
     <t>соответсвтует ожидаемому</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>Сохранение истории</t>
   </si>
   <si>
-    <t>Осуществлен поиск билетов</t>
-  </si>
-  <si>
     <t>Введенная пользователем информация сохранилась</t>
   </si>
   <si>
@@ -231,15 +225,9 @@
     <t>Закладка успешно удалена</t>
   </si>
   <si>
-    <t>открыта страница со списком закладок</t>
-  </si>
-  <si>
     <t>В правой части закладки нажать на сердечко</t>
   </si>
   <si>
-    <t>открыта страница с историей поиска</t>
-  </si>
-  <si>
     <t>В правой части закладки нажать на крестик</t>
   </si>
   <si>
@@ -301,6 +289,33 @@
   </si>
   <si>
     <t>Pixel 3 XL API 28 Android 9.0</t>
+  </si>
+  <si>
+    <t>Отобразилась страница авторизации</t>
+  </si>
+  <si>
+    <t>пройдена авторизация</t>
+  </si>
+  <si>
+    <t>открыта страница со списком закладок  пройдена авторизация</t>
+  </si>
+  <si>
+    <t>открыта страница с историей поиска пройдена авторизация</t>
+  </si>
+  <si>
+    <t>открыта страница с историей поиска  пройдена авторизация</t>
+  </si>
+  <si>
+    <t>Осуществлен поиск билетов пройдена авторизация</t>
+  </si>
+  <si>
+    <t>Авторизоваться</t>
+  </si>
+  <si>
+    <t>выбрать аккаунт</t>
+  </si>
+  <si>
+    <t>авторизация успешна</t>
   </si>
 </sst>
 </file>
@@ -497,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -540,9 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,27 +594,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,27 +642,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -936,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,23 +975,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="44" t="s">
-        <v>94</v>
+      <c r="F1" s="45" t="s">
+        <v>90</v>
       </c>
       <c r="G1" s="46"/>
       <c r="H1" s="1"/>
@@ -978,61 +1001,61 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="39"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="37"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="37"/>
+      <c r="H3" s="42"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1040,26 +1063,26 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
+      <c r="A5" s="32">
         <v>2</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>12</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1069,10 +1092,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="28" t="s">
-        <v>15</v>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="27" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -1085,10 +1108,10 @@
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="28" t="s">
-        <v>16</v>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="27" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
@@ -1101,10 +1124,10 @@
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="28" t="s">
-        <v>20</v>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="27" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -1117,18 +1140,18 @@
     </row>
     <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>11</v>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="2"/>
@@ -1139,12 +1162,12 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="35"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="41"/>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="2"/>
@@ -1155,12 +1178,12 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="35"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="41"/>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="2"/>
@@ -1170,15 +1193,15 @@
       <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="33"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="36"/>
       <c r="F12" s="34"/>
-      <c r="G12" s="31"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1186,26 +1209,26 @@
       <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="32">
         <v>3</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="32" t="s">
+      <c r="B13" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="32" t="s">
         <v>11</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>12</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1215,10 +1238,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -1231,10 +1254,10 @@
     </row>
     <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -1247,16 +1270,16 @@
     </row>
     <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>10</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="2"/>
@@ -1267,14 +1290,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35" t="s">
-        <v>44</v>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="35"/>
+        <v>20</v>
+      </c>
+      <c r="E17" s="41"/>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="2"/>
@@ -1285,12 +1308,12 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="35"/>
+        <v>21</v>
+      </c>
+      <c r="E18" s="41"/>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="2"/>
@@ -1300,15 +1323,15 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="33"/>
+        <v>22</v>
+      </c>
+      <c r="E19" s="36"/>
       <c r="F19" s="34"/>
-      <c r="G19" s="31"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1316,26 +1339,26 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
+      <c r="A20" s="32">
         <v>4</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="32" t="s">
+      <c r="B20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="32" t="s">
         <v>11</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>12</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1344,221 +1367,221 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
+      <c r="A22" s="32">
         <v>5</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="F23" s="36"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
+        <v>6</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="F24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
+        <v>7</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <v>6</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="32" t="s">
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>8</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="F28" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>9</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="30" t="s">
+      <c r="F30" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G24" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
-        <v>7</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="30" t="s">
+    </row>
+    <row r="31" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="33"/>
+      <c r="E31" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+    </row>
+    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="37">
+        <v>10</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <v>8</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>9</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
-        <v>10</v>
-      </c>
-      <c r="B32" s="30" t="s">
+    </row>
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
@@ -1566,26 +1589,26 @@
       <c r="L33" s="12"/>
     </row>
     <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="A34" s="22">
         <v>11</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
@@ -1594,24 +1617,24 @@
       <c r="L34" s="12"/>
     </row>
     <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="17">
+      <c r="A35" s="16">
         <v>12</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>53</v>
+      <c r="B35" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
@@ -1620,26 +1643,26 @@
       <c r="L35" s="12"/>
     </row>
     <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+      <c r="A36" s="37">
         <v>13</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>87</v>
+      <c r="B36" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H36" s="12"/>
       <c r="I36" s="12"/>
@@ -1648,20 +1671,22 @@
       <c r="L36" s="12"/>
     </row>
     <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="30" t="s">
+        <v>92</v>
+      </c>
       <c r="D37" s="13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
@@ -1670,26 +1695,26 @@
       <c r="L37" s="12"/>
     </row>
     <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>14</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
@@ -1698,26 +1723,26 @@
       <c r="L38" s="12"/>
     </row>
     <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
+      <c r="A39" s="37">
         <v>15</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="30" t="s">
+      <c r="B39" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E39" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="32" t="s">
         <v>11</v>
-      </c>
-      <c r="G39" s="30" t="s">
-        <v>12</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
@@ -1726,15 +1751,17 @@
       <c r="L39" s="12"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="33"/>
+      <c r="E40" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
       <c r="H40" s="12"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
@@ -1742,26 +1769,26 @@
       <c r="L40" s="12"/>
     </row>
     <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="32">
         <v>16</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="30" t="s">
+      <c r="F41" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="32" t="s">
         <v>11</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>12</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
@@ -1769,16 +1796,18 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
       <c r="B42" s="34"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="C42" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
@@ -1786,22 +1815,22 @@
       <c r="L42" s="12"/>
     </row>
     <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="13" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
@@ -1814,22 +1843,22 @@
         <v>17</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F44" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
@@ -1838,26 +1867,26 @@
       <c r="L44" s="12"/>
     </row>
     <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="23">
+      <c r="A45" s="22">
         <v>18</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C45" s="16" t="s">
         <v>73</v>
       </c>
+      <c r="C45" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="D45" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
@@ -1869,23 +1898,23 @@
       <c r="A46" s="4">
         <v>19</v>
       </c>
-      <c r="B46" s="23" t="s">
-        <v>80</v>
+      <c r="B46" s="22" t="s">
+        <v>76</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G46" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
@@ -1894,26 +1923,26 @@
       <c r="L46" s="12"/>
     </row>
     <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+      <c r="A47" s="22">
         <v>20</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>12</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
@@ -1922,13 +1951,23 @@
       <c r="L47" s="12"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="A48" s="47">
+        <v>21</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="49"/>
+      <c r="G48" s="50"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
@@ -2048,13 +2087,69 @@
       <c r="L56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
+  <mergeCells count="84">
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="G5:G12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A32:A33"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="G30:G31"/>
@@ -2071,71 +2166,12 @@
     <mergeCell ref="G13:G19"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Документация/тесткейсы.xlsx
+++ b/Документация/тесткейсы.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="107">
   <si>
     <t>Описание</t>
   </si>
@@ -316,6 +316,27 @@
   </si>
   <si>
     <t>авторизация успешна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pixel 2 API 27 Android 8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pixel 2 XL API 26 Android 8.0</t>
+  </si>
+  <si>
+    <t>Pixel API 25 Android 7.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nexus 5X API 24 Android 7.0</t>
+  </si>
+  <si>
+    <t>Nexus 9 API 23 Android 6.0</t>
+  </si>
+  <si>
+    <t>Nexus 7 API 22 Android 5.1</t>
+  </si>
+  <si>
+    <t>Nexus 5 API 21 Android 5.0</t>
   </si>
 </sst>
 </file>
@@ -512,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -607,16 +628,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -630,32 +684,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -957,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,174 +1000,380 @@
     <col min="6" max="6" width="28.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" customWidth="1"/>
+    <col min="24" max="24" width="20.85546875" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="8" t="s">
+      <c r="K1" s="47"/>
+      <c r="L1" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="47"/>
+      <c r="N1" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="47"/>
+      <c r="P1" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="S1" s="47"/>
+      <c r="T1" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="47"/>
+      <c r="V1" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="47"/>
+      <c r="X1" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="47"/>
+    </row>
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="51"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="45"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="L2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="39">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="39" t="s">
         <v>80</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="39">
+        <v>1</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="33"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="I4" s="40"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+    </row>
+    <row r="5" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
         <v>2</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>11</v>
-      </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="I5" s="39">
+        <v>2</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y5" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
+      <c r="E6" s="42"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+    </row>
+    <row r="7" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
       <c r="B7" s="41"/>
       <c r="C7" s="41"/>
       <c r="D7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="E7" s="42"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+    </row>
+    <row r="8" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
+      <c r="E8" s="42"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+    </row>
+    <row r="9" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
       <c r="B9" s="41"/>
       <c r="C9" s="41" t="s">
         <v>43</v>
@@ -1150,126 +1384,247 @@
       <c r="E9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="34"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="41"/>
+      <c r="L9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="41"/>
+      <c r="N9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="41"/>
+      <c r="P9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S9" s="41"/>
+      <c r="T9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" s="41"/>
+      <c r="V9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W9" s="41"/>
+      <c r="X9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y9" s="41"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="41"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
       <c r="D11" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="41"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+    </row>
+    <row r="12" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
+      <c r="E12" s="38"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="38"/>
+    </row>
+    <row r="13" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
         <v>3</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="32" t="s">
+      <c r="E13" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="I13" s="39">
+        <v>3</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W13" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
+      <c r="E14" s="42"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+    </row>
+    <row r="15" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="41"/>
       <c r="C15" s="41"/>
       <c r="D15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="E15" s="42"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+    </row>
+    <row r="16" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
       <c r="D16" s="9" t="s">
@@ -1278,18 +1633,43 @@
       <c r="E16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G16" s="34"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="41"/>
+      <c r="L16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O16" s="41"/>
+      <c r="P16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16" s="41"/>
+      <c r="T16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U16" s="41"/>
+      <c r="V16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W16" s="41"/>
+      <c r="X16" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y16" s="41"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41" t="s">
         <v>43</v>
@@ -1298,297 +1678,742 @@
         <v>20</v>
       </c>
       <c r="E17" s="41"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
       <c r="D18" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="41"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="40"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="38"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="I19" s="40"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="38"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
         <v>4</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="39" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>11</v>
-      </c>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="33"/>
+      <c r="I20" s="39">
+        <v>4</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U20" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32">
+      <c r="I21" s="40"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38"/>
+      <c r="U21" s="38"/>
+      <c r="V21" s="38"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+    </row>
+    <row r="22" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39">
         <v>5</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="39" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="I22" s="39">
+        <v>5</v>
+      </c>
+      <c r="J22" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="32" t="s">
+      <c r="K22" s="37" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="33"/>
+      <c r="L22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="U22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="V22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="W22" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="X22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y22" s="37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="32">
+      <c r="I23" s="40"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+    </row>
+    <row r="24" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39">
         <v>6</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="39" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="33"/>
+      <c r="I24" s="39">
+        <v>6</v>
+      </c>
+      <c r="J24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W24" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="32">
+      <c r="I25" s="40"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="38"/>
+      <c r="T25" s="38"/>
+      <c r="U25" s="38"/>
+      <c r="V25" s="38"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="38"/>
+    </row>
+    <row r="26" spans="1:25" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
         <v>7</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="39" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="33"/>
+      <c r="I26" s="39">
+        <v>7</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X26" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="40"/>
       <c r="E27" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="I27" s="40"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
+      <c r="U27" s="38"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="38"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="39">
         <v>8</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="39" t="s">
         <v>37</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="33"/>
+      <c r="I28" s="39">
+        <v>8</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S28" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U28" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X28" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y28" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="40"/>
       <c r="E29" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="I29" s="40"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+    </row>
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="39">
         <v>9</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="39" t="s">
         <v>37</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="36"/>
+      <c r="I30" s="39">
+        <v>9</v>
+      </c>
+      <c r="J30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X30" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y30" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="33"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-    </row>
-    <row r="32" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
-        <v>10</v>
-      </c>
-      <c r="B32" s="32" t="s">
+      <c r="I31" s="40"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
+      <c r="U31" s="38"/>
+      <c r="V31" s="38"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="38"/>
+    </row>
+    <row r="32" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48">
+        <v>10</v>
+      </c>
+      <c r="B32" s="39" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="35" t="s">
+      <c r="E32" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="38"/>
-      <c r="B33" s="33"/>
+      <c r="I32" s="39">
+        <v>10</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W32" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X32" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y32" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="49"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="38"/>
       <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I33" s="40"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="38"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
+      <c r="U33" s="38"/>
+      <c r="V33" s="38"/>
+      <c r="W33" s="38"/>
+      <c r="X33" s="38"/>
+      <c r="Y33" s="38"/>
+    </row>
+    <row r="34" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>11</v>
       </c>
@@ -1604,19 +2429,60 @@
       <c r="E34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I34" s="22">
+        <v>11</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y34" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <v>12</v>
       </c>
@@ -1630,23 +2496,64 @@
       <c r="E35" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-    </row>
-    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
+      <c r="I35" s="32">
+        <v>12</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y35" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="48">
         <v>13</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="37" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="29" t="s">
@@ -1658,21 +2565,62 @@
       <c r="E36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F36" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="36"/>
+      <c r="I36" s="39">
+        <v>13</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y36" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="49"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="30" t="s">
         <v>92</v>
       </c>
@@ -1682,19 +2630,58 @@
       <c r="E37" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-    </row>
-    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I37" s="40"/>
+      <c r="J37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X37" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y37" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>14</v>
       </c>
@@ -1710,113 +2697,258 @@
       <c r="E38" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F38" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
+      <c r="I38" s="22">
+        <v>14</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y38" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="48">
         <v>15</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="39" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="39" t="s">
         <v>62</v>
       </c>
       <c r="E39" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F39" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>11</v>
-      </c>
       <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="33"/>
+      <c r="I39" s="39">
+        <v>15</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W39" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X39" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y39" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="49"/>
+      <c r="B40" s="40"/>
       <c r="C40" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="33"/>
+      <c r="D40" s="40"/>
       <c r="E40" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
       <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-    </row>
-    <row r="41" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="I40" s="40"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
+      <c r="P40" s="38"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="38"/>
+      <c r="W40" s="38"/>
+      <c r="X40" s="38"/>
+      <c r="Y40" s="38"/>
+    </row>
+    <row r="41" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39">
         <v>16</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="39" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="37" t="s">
         <v>66</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F41" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>11</v>
-      </c>
       <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
+      <c r="I41" s="39">
+        <v>16</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="M41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="P41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="T41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="U41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="V41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="W41" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="X41" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y41" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="36"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
       <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="38"/>
+      <c r="R42" s="38"/>
+      <c r="S42" s="38"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="38"/>
+      <c r="V42" s="38"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="38"/>
+      <c r="Y42" s="38"/>
+    </row>
+    <row r="43" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="13" t="s">
         <v>93</v>
       </c>
@@ -1826,19 +2958,58 @@
       <c r="E43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I43" s="40"/>
+      <c r="J43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="M43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="S43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="U43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X43" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y43" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>17</v>
       </c>
@@ -1854,19 +3025,60 @@
       <c r="E44" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I44" s="34">
+        <v>17</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y44" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>18</v>
       </c>
@@ -1882,19 +3094,60 @@
       <c r="E45" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F45" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G45" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="I45" s="22">
+        <v>18</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W45" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y45" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>19</v>
       </c>
@@ -1910,19 +3163,60 @@
       <c r="E46" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-    </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I46" s="34">
+        <v>19</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W46" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X46" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y46" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>20</v>
       </c>
@@ -1938,23 +3232,64 @@
       <c r="E47" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F47" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="22" t="s">
-        <v>11</v>
-      </c>
       <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="47">
+      <c r="I47" s="22">
+        <v>20</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W47" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y47" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="35">
         <v>21</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="36" t="s">
         <v>97</v>
       </c>
       <c r="C48" s="13" t="s">
@@ -1966,13 +3301,58 @@
       <c r="E48" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="49"/>
-      <c r="G48" s="50"/>
       <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
+      <c r="I48" s="35">
+        <v>21</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="U48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W48" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
@@ -2087,19 +3467,257 @@
       <c r="L56" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E9:E12"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="G5:G12"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="G3:G4"/>
+  <mergeCells count="287">
+    <mergeCell ref="X41:X42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="X39:X40"/>
+    <mergeCell ref="Y39:Y40"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="X28:X29"/>
+    <mergeCell ref="Y28:Y29"/>
+    <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="X5:X8"/>
+    <mergeCell ref="Y5:Y12"/>
+    <mergeCell ref="X9:X12"/>
+    <mergeCell ref="X13:X15"/>
+    <mergeCell ref="Y13:Y19"/>
+    <mergeCell ref="X16:X19"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="X22:X23"/>
+    <mergeCell ref="Y22:Y23"/>
+    <mergeCell ref="X24:X25"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="V39:V40"/>
+    <mergeCell ref="W39:W40"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="V26:V27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="V28:V29"/>
+    <mergeCell ref="W28:W29"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="V5:V8"/>
+    <mergeCell ref="W5:W12"/>
+    <mergeCell ref="V9:V12"/>
+    <mergeCell ref="V13:V15"/>
+    <mergeCell ref="W13:W19"/>
+    <mergeCell ref="V16:V19"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="V22:V23"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="V24:V25"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="T32:T33"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="U39:U40"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="T28:T29"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="R41:R42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="T5:T8"/>
+    <mergeCell ref="U5:U12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="U13:U19"/>
+    <mergeCell ref="T16:T19"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="U20:U21"/>
+    <mergeCell ref="T22:T23"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="T24:T25"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="S30:S31"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="R39:R40"/>
+    <mergeCell ref="S39:S40"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="S28:S29"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="R5:R8"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S19"/>
+    <mergeCell ref="R16:R19"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="S22:S23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="P30:P31"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="Q39:Q40"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="P5:P8"/>
+    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="Q13:Q19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="O30:O31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="O32:O33"/>
+    <mergeCell ref="N39:N40"/>
+    <mergeCell ref="O39:O40"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="O26:O27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N5:N8"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="O13:O19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="O22:O23"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="M39:M40"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="L5:L8"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="L9:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="M13:M19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I12"/>
+    <mergeCell ref="I13:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="K13:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A5:A12"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D39:D40"/>
     <mergeCell ref="A41:A43"/>
@@ -2115,63 +3733,28 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
     <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C9:C12"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="F9:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G13:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="J5:J8"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
